--- a/biology/Médecine/Ornithose_(maladie_professionnelle)/Ornithose_(maladie_professionnelle).xlsx
+++ b/biology/Médecine/Ornithose_(maladie_professionnelle)/Ornithose_(maladie_professionnelle).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article décrit les critères administratifs pour qu'une ornithose ou une psittacose soit reconnue comme maladie professionnelle en France.
 Ce sujet relève du domaine de la législation sur la protection sociale et a un caractère davantage juridique que médical. Pour la description clinique de la maladie se reporter à l'article suivant :
@@ -514,13 +526,11 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Régime général
-Régime agricole
-Les Ornithose  sont des Zoonoses pulmonaires à Chlamydia qui se transmettent par contact avec une centaine espèces d'oiseaux sauvages et domestiques. On parle de psittacose lorsque cette maladie infectieuse est provoquée par le Chlamydophila psittaci, transmis par les Psittacidae. C'en est même la forme la plus virulente. 
-Cette zoonose revêt un caractère sporadique ou parfois anadémique.
-</t>
-        </is>
-      </c>
+          <t>Régime général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -543,12 +553,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Données épidémiologiques et professionnelles</t>
+          <t>Législation en  France</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ces maladies se transmettent par inhalation de poussières contaminées par les déjections d'oiseaux infectés. Ces maladies sont courantes et difficiles à éviter dans les élevages avicoles et très rarement contractées en côtoyant des oiseaux isolés. Les cas de transmission d'un mammifère à un autre sont extrêmement rare. Les éleveurs d'oiseaux, ainsi que tous les professionnels de la filière avicole sont exposés au cours de leur travail. 
+          <t>Régime agricole</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Ornithose  sont des Zoonoses pulmonaires à Chlamydia qui se transmettent par contact avec une centaine espèces d'oiseaux sauvages et domestiques. On parle de psittacose lorsque cette maladie infectieuse est provoquée par le Chlamydophila psittaci, transmis par les Psittacidae. C'en est même la forme la plus virulente. 
+Cette zoonose revêt un caractère sporadique ou parfois anadémique.
 </t>
         </is>
       </c>
@@ -574,10 +591,45 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Données épidémiologiques et professionnelles</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces maladies se transmettent par inhalation de poussières contaminées par les déjections d'oiseaux infectés. Ces maladies sont courantes et difficiles à éviter dans les élevages avicoles et très rarement contractées en côtoyant des oiseaux isolés. Les cas de transmission d'un mammifère à un autre sont extrêmement rare. Les éleveurs d'oiseaux, ainsi que tous les professionnels de la filière avicole sont exposés au cours de leur travail. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ornithose_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ornithose_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Données médicales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette maladie se traduit chez l'homme et l'oiseau par une inflammation pulmonaire qui provoque une difficulté à respirer et une fatigue post-infectieuse qui peut durer des semaines. Elle se guérit avec des antibiotiques telle que la tétracycline. 
 </t>
